--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_38_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_38_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9915775528857056</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7293436655079703</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9616990988407971</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6969835667436128</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9315462731123199</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05632094263508984</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H2" t="n">
-        <v>1.80988015500603</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1152290570056721</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1172294181664999</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1162292637640503</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L2" t="n">
-        <v>1.283386201221443</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M2" t="n">
-        <v>0.237320337592651</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N2" t="n">
-        <v>1.002769023708809</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O2" t="n">
-        <v>0.247423555684794</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P2" t="n">
-        <v>199.7533776602874</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q2" t="n">
-        <v>317.9843326725028</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_1</t>
+          <t>model_38_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9916671594223119</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7289466578308146</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D3" t="n">
-        <v>0.959948031244368</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6615295417107847</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9259558683649323</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05572174331220298</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H3" t="n">
-        <v>1.812534947171222</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1204971802555929</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1309456865602416</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1257213492570442</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L3" t="n">
-        <v>1.205024420643667</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2360545346147855</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002739564025541</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2461038648535874</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P3" t="n">
-        <v>199.7747696870997</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q3" t="n">
-        <v>318.0057246993152</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_2</t>
+          <t>model_38_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9916697146069573</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7285155850833298</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9582401305702066</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6275090425556784</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9205669244732261</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05570465678071412</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H4" t="n">
-        <v>1.81541753261856</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1256354349228903</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1441073599349412</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1348713694163047</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L4" t="n">
-        <v>1.134449085652323</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2360183399244943</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002738723964836</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2460661292803971</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P4" t="n">
-        <v>199.7753830617258</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q4" t="n">
-        <v>318.0063380739413</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_3</t>
+          <t>model_38_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9916087380316354</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7280680056946872</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9565960706596096</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5951784808190017</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9154271756450536</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0561124074206623</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H5" t="n">
-        <v>1.818410498051327</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1305816233264339</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1566152391303242</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1435982751582058</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L5" t="n">
-        <v>1.070898732413447</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2368805762840472</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N5" t="n">
-        <v>1.002758771058093</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2469650728268515</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P5" t="n">
-        <v>199.7607966495268</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q5" t="n">
-        <v>317.9917516617423</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_4</t>
+          <t>model_38_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9915027690006949</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7276169980335494</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9550306358818963</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5647003397598993</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9105679378333674</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05682102281850467</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H6" t="n">
-        <v>1.821426388358055</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I6" t="n">
-        <v>0.135291266383917</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J6" t="n">
-        <v>0.168406463470068</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1518488943572661</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L6" t="n">
-        <v>1.013666390568861</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2383716065694584</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002793610191552</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2485195793583709</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P6" t="n">
-        <v>199.7356978033769</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q6" t="n">
-        <v>317.9666528155924</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_5</t>
+          <t>model_38_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9913659697566801</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7271720540487376</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9535521181491331</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5361502082257477</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9060054995915955</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0577357999931336</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H7" t="n">
-        <v>1.824401730833269</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1397394177055874</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1794517895349212</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1595955702786547</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9621408559254921</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2402827500948281</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002838585285475</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O7" t="n">
-        <v>0.250512084220228</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P7" t="n">
-        <v>199.7037556947606</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q7" t="n">
-        <v>317.9347107069761</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_6</t>
+          <t>model_38_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9912093951699331</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7267400998428494</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9521652996348632</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5095547671349167</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.901746952807596</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05878281497567035</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H8" t="n">
-        <v>1.827290210597011</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1439116900229692</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1897408951502644</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1668262614318358</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9157492650387692</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2424516755472528</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00289006186194</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2527733453194571</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P8" t="n">
-        <v>199.6678114582261</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q8" t="n">
-        <v>317.8987664704416</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_7</t>
+          <t>model_38_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9910413666228566</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7263258229376515</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9508720106291539</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4848839545992415</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8977905136720166</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05990642264367167</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H9" t="n">
-        <v>1.830060482169639</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1478025768703634</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1992854105026872</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1735439965905102</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8739793397871191</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2447578857640172</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002945304123992</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2551777356796624</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P9" t="n">
-        <v>199.6299431136858</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q9" t="n">
-        <v>317.8608981259013</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_8</t>
+          <t>model_38_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9908681626012826</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7259323124057536</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9496709666761775</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4620879952596506</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8941294140766874</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06106463873346819</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H10" t="n">
-        <v>1.832691888908389</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1514159425598175</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2081045924236436</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1797602674917306</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8363751322257386</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2471126033480854</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003002247911907</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2576326984662218</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P10" t="n">
-        <v>199.5916446489494</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q10" t="n">
-        <v>317.8225996611649</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_9</t>
+          <t>model_38_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9906945509554271</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7255614091593493</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9485606378475011</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4410948162548602</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8907541257555419</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06222558060871172</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H11" t="n">
-        <v>1.835172120624947</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1547563899128127</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2162263240860134</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1854912524124179</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L11" t="n">
-        <v>0.802523405133169</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2494505574431769</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003059325713284</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2600701841073735</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P11" t="n">
-        <v>199.5539781999543</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q11" t="n">
-        <v>317.7849332121697</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_10</t>
+          <t>model_38_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9905238936960035</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7252140909046826</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9475374543487141</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4218093638572137</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8876504930976652</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06336676648828204</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H12" t="n">
-        <v>1.837494639393157</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1578346587300116</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2236873793804664</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1907609865119355</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7720463274992666</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2517275640216662</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003115432209533</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2624441275699625</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P12" t="n">
-        <v>199.5176314857109</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q12" t="n">
-        <v>317.7485864979263</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_11</t>
+          <t>model_38_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9903586818183194</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7248905470400212</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9465969096264519</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4041427855732058</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8848045875508079</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06447153907508646</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H13" t="n">
-        <v>1.83965817870593</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1606643070708545</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2305221330965291</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1955931194211633</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L13" t="n">
-        <v>0.744612665165578</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M13" t="n">
-        <v>0.253912463410299</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003169748443292</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2647220426489347</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P13" t="n">
-        <v>199.4830628144234</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q13" t="n">
-        <v>317.7140178266389</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9902005625033993</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7245904717748932</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9457348647002176</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3879882380942916</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8822003268962264</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06552888366203001</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H14" t="n">
-        <v>1.84166478338556</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1632577871441724</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2367719202164701</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K14" t="n">
-        <v>0.200014957534205</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7199178499417148</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2559861005250676</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003221732875595</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2668839587886995</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P14" t="n">
-        <v>199.4505285232022</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q14" t="n">
-        <v>317.6814835354177</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_13</t>
+          <t>model_38_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9900506577554745</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7243132773795359</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9449466927002779</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E15" t="n">
-        <v>0.373243992490498</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8798223646393248</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06653129740165077</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H15" t="n">
-        <v>1.843518383583678</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1656290189837007</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2424760970984355</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2040525580410681</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L15" t="n">
-        <v>0.697685870735547</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2579366150852778</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N15" t="n">
-        <v>1.003271016628337</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2689175107918597</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P15" t="n">
-        <v>199.4201656088333</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q15" t="n">
-        <v>317.6511206210488</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_14</t>
+          <t>model_38_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9899095087898246</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7240579613636515</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D16" t="n">
-        <v>0.944226646903362</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3598054094393365</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8776535077988229</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06747516118488261</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H16" t="n">
-        <v>1.845225682957519</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I16" t="n">
-        <v>0.167795291725813</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J16" t="n">
-        <v>0.247675146058057</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2077351133268423</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6776782167779655</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2597598144149372</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N16" t="n">
-        <v>1.003317421767729</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2708183274915256</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P16" t="n">
-        <v>199.391991462544</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q16" t="n">
-        <v>317.6229464747594</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_15</t>
+          <t>model_38_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9897774784009096</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7238234884275068</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9435703102899901</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3475766049694489</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8756788365547188</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06835804900350143</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H17" t="n">
-        <v>1.846793604561167</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1697698940653972</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J17" t="n">
-        <v>0.25240616218636</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2110879561202646</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6596652291195744</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2614537224892799</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003360829018879</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2725843487394662</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P17" t="n">
-        <v>199.3659919223454</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q17" t="n">
-        <v>317.5969469345609</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_16</t>
+          <t>model_38_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9896546336851979</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7236086673910944</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9429731589793781</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3364634541802396</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.873883719696274</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06917951218311373</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H18" t="n">
-        <v>1.848230113820816</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1715664361917952</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2567055600342427</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2141359291133176</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6434540022673435</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2630199843797306</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N18" t="n">
-        <v>1.003401216322675</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2742172896412024</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P18" t="n">
-        <v>199.3421010538258</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q18" t="n">
-        <v>317.5730560660413</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_17</t>
+          <t>model_38_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.989540776349189</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7234122027244678</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9424301467160013</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3263723341935112</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8722529636183747</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06994087671326965</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H19" t="n">
-        <v>1.849543873951185</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1732000998696115</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2606095599327946</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2169048299012031</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6288617621591347</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2644633749940994</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003438648871499</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2757221283822554</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P19" t="n">
-        <v>199.3202100244114</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q19" t="n">
-        <v>317.5511650366269</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_18</t>
+          <t>model_38_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9894356311877086</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7232328963222556</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9419367894132612</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3172191255361216</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8707730712824193</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07064398289223824</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H20" t="n">
-        <v>1.850742896688408</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1746843755665541</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J20" t="n">
-        <v>0.264150705585296</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2194175754371822</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6157267240318991</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2657893581245085</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003473217143767</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2771045613596895</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P20" t="n">
-        <v>199.3002046826334</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q20" t="n">
-        <v>317.5311596948488</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_19</t>
+          <t>model_38_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9893388939420338</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7230695258004977</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9414896860777868</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3089243580390668</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8694320174881394</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07129086529949974</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H21" t="n">
-        <v>1.851835356119656</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1760294952418498</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2673597419964777</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2216945836040697</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6039040844124971</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2670034930473752</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003505021169742</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2783703845198284</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P21" t="n">
-        <v>199.2819741523721</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q21" t="n">
-        <v>317.5129291645875</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_20</t>
+          <t>model_38_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9892500346618176</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7229208296475782</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9410839558199753</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3014099304619512</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8682163943607041</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07188506771546441</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H22" t="n">
-        <v>1.852829687978911</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1772501431532911</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2702668845671058</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2237586199617715</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5932633527709392</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2681139080977792</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N22" t="n">
-        <v>1.003534235179676</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2795280722378042</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P22" t="n">
-        <v>199.2653734342218</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q22" t="n">
-        <v>317.4963284464372</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_21</t>
+          <t>model_38_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9891686594392105</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7227856884820725</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9407165682962013</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2946092838200589</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8671162042761896</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07242922420373678</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H23" t="n">
-        <v>1.853733377574916</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1783554361526427</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J23" t="n">
-        <v>0.272897883290236</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2256266597214393</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5836857490421693</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2691267809114076</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00356098867752</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2805840651440444</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P23" t="n">
-        <v>199.250290823624</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q23" t="n">
-        <v>317.4812458358395</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_22</t>
+          <t>model_38_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9890942985967569</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7226629589514035</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9403842364413116</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2884585564607443</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8661211369684515</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07292647549962403</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H24" t="n">
-        <v>1.854554070511616</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1793552634437214</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2752774446291523</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2273162089371283</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5750653139502159</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2700490242523087</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N24" t="n">
-        <v>1.003585436077779</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2815455702932746</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P24" t="n">
-        <v>199.236607060644</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q24" t="n">
-        <v>317.4675620728594</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_23</t>
+          <t>model_38_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9890264445435651</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7225516542046064</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9400834099746891</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2828989693656531</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8652211985769507</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07338021586575674</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H25" t="n">
-        <v>1.855298365865959</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1802603061195367</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2774283087040788</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2288442364300474</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5673058148092519</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2708878289361793</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00360774425965</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2824200846291027</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P25" t="n">
-        <v>199.2242018366148</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q25" t="n">
-        <v>317.4551568488303</v>
+        <v>316.628686765987</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9889646190173673</v>
+        <v>0.983411272964303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7224507603580947</v>
+        <v>0.7680886473225196</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9398114346117525</v>
+        <v>0.9010611905801439</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2778746397981864</v>
+        <v>0.9904885795268966</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8644078229897115</v>
+        <v>0.9554471827068973</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07379364344412204</v>
+        <v>0.1109288940717707</v>
       </c>
       <c r="H26" t="n">
-        <v>1.855973043482157</v>
+        <v>1.550792283207901</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1810785496504053</v>
+        <v>0.6445991463351214</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2793720951368512</v>
+        <v>0.04870644158701706</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2302252868120606</v>
+        <v>0.3466527939610692</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5603268052359787</v>
+        <v>0.2545012030428264</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2716498544894181</v>
+        <v>0.3330598956220498</v>
       </c>
       <c r="N26" t="n">
-        <v>1.003628070460044</v>
+        <v>1.005453828066531</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2832145511877532</v>
+        <v>0.3472389449077109</v>
       </c>
       <c r="P26" t="n">
-        <v>199.2129653665575</v>
+        <v>198.3977317537716</v>
       </c>
       <c r="Q26" t="n">
-        <v>317.443920378773</v>
+        <v>316.628686765987</v>
       </c>
     </row>
   </sheetData>
